--- a/data/data_calendarSpreads/AJANTPHARM.xlsx
+++ b/data/data_calendarSpreads/AJANTPHARM.xlsx
@@ -403,7 +403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
       <selection activeCell="A212" sqref="A212:XFD212"/>
@@ -2760,6 +2760,17 @@
         <v>1034</v>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" s="5" t="n">
+        <v>43585.48956032095</v>
+      </c>
+      <c r="B214" t="n">
+        <v>985.85</v>
+      </c>
+      <c r="C214" t="n">
+        <v>980.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
